--- a/GPIT_PARAMTERS.xlsx
+++ b/GPIT_PARAMTERS.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaldip.gadhiya\Desktop\08092023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>PARTNER_ID</t>
   </si>
@@ -92,12 +87,6 @@
     <t>PROP_MONTH_END Flag</t>
   </si>
   <si>
-    <t>PARAMETER_NAME</t>
-  </si>
-  <si>
-    <t>PARAMETER_ID</t>
-  </si>
-  <si>
     <t>PARAM_VALUE</t>
   </si>
   <si>
@@ -141,13 +130,43 @@
   </si>
   <si>
     <t>Day End Receipting Process Flag</t>
+  </si>
+  <si>
+    <t>PARAM_STAGE</t>
+  </si>
+  <si>
+    <t>PARAM_ID</t>
+  </si>
+  <si>
+    <t>PARAM_NAME</t>
+  </si>
+  <si>
+    <t>MASTER_POLICY_NO</t>
+  </si>
+  <si>
+    <t>PRECHECK</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>ISSUANCE, DAYENDSCHEDULER</t>
+  </si>
+  <si>
+    <t>PAYMENT, DAYENDSCHEDULER</t>
+  </si>
+  <si>
+    <t>DATA_INSERTION</t>
+  </si>
+  <si>
+    <t>VALIDATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +219,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -472,30 +497,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +535,9 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -522,25 +550,32 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -551,13 +586,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -568,13 +609,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -585,13 +632,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -602,13 +655,19 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -619,13 +678,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -636,13 +701,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -653,13 +724,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -670,13 +747,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -687,30 +770,42 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -721,160 +816,224 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
